--- a/GrTable.xlsx
+++ b/GrTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F806200-8B1E-499E-B62F-69FDD771B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DAB34A-F13C-48DC-95A6-DF7A825DAEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>r</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>v</t>
-  </si>
-  <si>
-    <t>sumH</t>
   </si>
 </sst>
 </file>
@@ -74,10 +71,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,189 +417,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDE8AF5-24A4-48CA-A173-000EC1CB7686}">
-  <dimension ref="C6:L14"/>
+  <dimension ref="G4:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="9.06640625" customWidth="1"/>
+    <col min="1" max="6" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="9.06640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="F6">
-        <f>SUM(F8:F20)</f>
-        <v>12.637999999999998</v>
-      </c>
-      <c r="G6">
-        <f>SUM(G8:G20)</f>
-        <v>65.56606697307501</v>
-      </c>
-      <c r="L6">
-        <f>SUM(L7:L8)</f>
-        <v>47.855883345199985</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C7" s="1" t="s">
+    <row r="4" spans="7:14" x14ac:dyDescent="0.45">
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="M4" s="1">
+        <f>H5-K4</f>
+        <v>0.37</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4*3.14*(G6*G6/4+G6*G5/4+G5*G5/4)/3+I6</f>
+        <v>3.1250402353749998</v>
+      </c>
+    </row>
+    <row r="5" spans="7:14" x14ac:dyDescent="0.45">
+      <c r="G5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I9" si="0">3.14*H5*(G5*G5/4+G5*G6/4+G6*G6/4)/3</f>
+        <v>4.1526499999999995</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="M5" s="1">
+        <f>H6-(K5-H5)</f>
+        <v>0.19299999999999995</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5*3.14*(G7*G7/4+G7*G6/4+G6*G6/4)/3</f>
+        <v>0.30875330204166657</v>
+      </c>
+    </row>
+    <row r="6" spans="7:14" x14ac:dyDescent="0.45">
+      <c r="G6" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5885597353749998</v>
+      </c>
+    </row>
+    <row r="7" spans="7:14" x14ac:dyDescent="0.45">
+      <c r="G7" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13241576250000001</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14" x14ac:dyDescent="0.45">
+      <c r="G8" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7884716625</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.45">
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
+      <c r="H9" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>51.5745</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14" x14ac:dyDescent="0.45">
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
         <v>1.335</v>
       </c>
-      <c r="K7">
-        <f>I8-SUM(J7:J16)</f>
-        <v>6.3029999999999982</v>
-      </c>
-      <c r="L7">
+      <c r="I10" s="1">
+        <f>3.14*H10*(G10*G10/4+G10*G11/4+G11*G11/4)/3</f>
         <v>3.3251883452000008</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="D8">
-        <f>E8/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f>3.14*F8*(D8*D8+D8*D9+D9*D9)/3</f>
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="I8">
-        <f>C13-I7</f>
-        <v>7.6379999999999981</v>
-      </c>
-      <c r="L8">
-        <f>3.14*K7*(D12*D12+D12*D13+D13*D13)/3</f>
-        <v>44.530694999999987</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C9">
-        <f>F9+F8</f>
-        <v>1.9929999999999999</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D14" si="0">E9/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G13" si="1">3.14*F9*(D9*D9+D9*D10+D10*D10)/3</f>
-        <v>2.6098412028750002</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C10">
-        <f>C9+F10</f>
-        <v>3.6929999999999996</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.1575</v>
-      </c>
-      <c r="E10">
-        <v>0.315</v>
-      </c>
-      <c r="F10">
-        <v>1.7</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0.13241576250000001</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C11">
-        <f t="shared" ref="C11:C13" si="2">C10+F11</f>
-        <v>3.9929999999999994</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.1575</v>
-      </c>
-      <c r="E11">
-        <v>0.315</v>
-      </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0.7884716625</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>11.302999999999999</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>7.31</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>51.645150000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>12.637999999999998</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1.335</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>3.3251883452000008</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E14">
+    <row r="11" spans="7:14" x14ac:dyDescent="0.45">
+      <c r="G11" s="1">
         <v>0.16400000000000001</v>
       </c>
     </row>
